--- a/websites_groups.xlsx
+++ b/websites_groups.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrohserrano/persona-training-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CB14D4-B664-5C47-947C-FD85267FA245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E846B7A-71D4-7E45-8276-D892B13EB1F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,9 +309,6 @@
     <t>cashbackkorting.nl</t>
   </si>
   <si>
-    <t>buienrader.nl</t>
-  </si>
-  <si>
     <t>corendon.nl</t>
   </si>
   <si>
@@ -781,6 +778,9 @@
   </si>
   <si>
     <t>yachtfocus.com</t>
+  </si>
+  <si>
+    <t>buienradar.nl</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
   <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>13</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>13</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>13</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>13</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>13</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>13</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>13</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>13</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>14</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>14</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>14</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>14</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>14</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>14</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>14</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>14</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>14</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>14</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>14</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>14</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>14</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>14</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>14</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>14</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>14</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>14</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>14</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>14</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>14</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>14</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>14</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>14</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>15</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>15</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>15</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>15</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>15</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>15</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>15</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>15</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>15</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>15</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>15</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>15</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>15</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>15</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>16</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>16</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>16</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>16</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>16</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>16</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>16</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>16</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>16</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>16</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>17</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>17</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>17</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>17</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>18</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>18</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>18</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>19</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>19</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>19</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>19</v>
@@ -2267,16 +2267,16 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>94</v>
+      <c r="A149" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>113</v>
+      <c r="A150" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>20</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>20</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>20</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>20</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>20</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>20</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>20</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>20</v>
@@ -2340,23 +2340,23 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>218</v>
+      <c r="A159" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>220</v>
+      <c r="A160" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>20</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>20</v>
@@ -2372,15 +2372,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>224</v>
+      <c r="A163" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>20</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>20</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>20</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>21</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>21</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>21</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>22</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>22</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>22</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>22</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>22</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>22</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>22</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>22</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>23</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>23</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>23</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>23</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>23</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>23</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>23</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>23</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>23</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>23</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>23</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>23</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>23</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>23</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>23</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>23</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>23</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>23</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>23</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>23</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>23</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>23</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>23</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>23</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>23</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>24</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>24</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>24</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>25</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>25</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>25</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>25</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>25</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>25</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>25</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>26</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>26</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>26</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>26</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>26</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>26</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>26</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>26</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>27</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>27</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>27</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>27</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>27</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>27</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>27</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>27</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>27</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>27</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>27</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>27</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>27</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>27</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>27</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>27</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>27</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>27</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>27</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>28</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>28</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>28</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>28</v>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>28</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>28</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>28</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>28</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>28</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>29</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>29</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>29</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>29</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>29</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>30</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>30</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>30</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>31</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>31</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>31</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>31</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>32</v>
@@ -3463,7 +3463,7 @@
     <hyperlink ref="A146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
     <hyperlink ref="A147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
     <hyperlink ref="A148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="A149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="A149" r:id="rId148" display="buienrader.nl" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
     <hyperlink ref="A150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
     <hyperlink ref="A151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
     <hyperlink ref="A152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000026010000}"/>

--- a/websites_groups.xlsx
+++ b/websites_groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrohserrano/persona-training-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E846B7A-71D4-7E45-8276-D892B13EB1F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B427FFD2-2996-5347-84D4-FD3EE00F6EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="248">
   <si>
     <t>Website</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Muslim</t>
   </si>
   <si>
-    <t>Suriname</t>
-  </si>
-  <si>
     <t>jw.nl</t>
   </si>
   <si>
@@ -489,9 +486,6 @@
     <t>notino.nl</t>
   </si>
   <si>
-    <t>pickuplimes.com</t>
-  </si>
-  <si>
     <t>psyq.nl</t>
   </si>
   <si>
@@ -654,9 +648,6 @@
     <t>tinder.com</t>
   </si>
   <si>
-    <t>milobi.com/</t>
-  </si>
-  <si>
     <t>muslima.com/</t>
   </si>
   <si>
@@ -709,9 +700,6 @@
   </si>
   <si>
     <t>youtube.com</t>
-  </si>
-  <si>
-    <t>sangam.nl</t>
   </si>
   <si>
     <t>rechtspraak.nl</t>
@@ -1069,11 +1057,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A276" sqref="A276:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1140,7 +1128,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1148,7 +1136,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1156,7 +1144,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -1164,7 +1152,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -1172,7 +1160,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1180,7 +1168,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1188,7 +1176,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -1196,7 +1184,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1204,7 +1192,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -1212,7 +1200,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -1220,7 +1208,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -1228,7 +1216,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -1236,7 +1224,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -1244,7 +1232,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -1252,7 +1240,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -1260,7 +1248,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
@@ -1268,7 +1256,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -1276,7 +1264,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -1284,7 +1272,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -1292,7 +1280,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
@@ -1300,7 +1288,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
@@ -1308,7 +1296,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -1316,7 +1304,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
@@ -1324,7 +1312,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -1332,7 +1320,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
@@ -1340,7 +1328,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>11</v>
@@ -1348,7 +1336,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>11</v>
@@ -1356,7 +1344,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>11</v>
@@ -1364,7 +1352,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>11</v>
@@ -1372,7 +1360,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>11</v>
@@ -1380,7 +1368,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>11</v>
@@ -1388,7 +1376,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>11</v>
@@ -1396,7 +1384,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
@@ -1404,7 +1392,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -1412,7 +1400,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -1420,7 +1408,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
@@ -1428,7 +1416,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -1436,7 +1424,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -1444,7 +1432,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -1452,7 +1440,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -1460,7 +1448,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -1468,7 +1456,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -1476,7 +1464,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -1484,7 +1472,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -1492,7 +1480,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -1500,7 +1488,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -1508,7 +1496,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -1516,7 +1504,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -1524,7 +1512,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
@@ -1532,7 +1520,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>13</v>
@@ -1540,7 +1528,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
@@ -1548,7 +1536,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -1556,7 +1544,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
@@ -1564,7 +1552,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
@@ -1572,7 +1560,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
@@ -1580,7 +1568,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>13</v>
@@ -1588,7 +1576,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>13</v>
@@ -1596,7 +1584,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>13</v>
@@ -1604,7 +1592,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>13</v>
@@ -1612,7 +1600,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -1620,7 +1608,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>13</v>
@@ -1628,7 +1616,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>13</v>
@@ -1636,7 +1624,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>13</v>
@@ -1644,7 +1632,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>13</v>
@@ -1652,7 +1640,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -1660,7 +1648,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>14</v>
@@ -1668,7 +1656,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>14</v>
@@ -1676,7 +1664,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>14</v>
@@ -1684,7 +1672,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>14</v>
@@ -1692,7 +1680,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>14</v>
@@ -1700,7 +1688,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>14</v>
@@ -1708,7 +1696,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>14</v>
@@ -1716,7 +1704,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>14</v>
@@ -1724,7 +1712,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>14</v>
@@ -1732,7 +1720,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>14</v>
@@ -1740,7 +1728,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>14</v>
@@ -1748,7 +1736,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>14</v>
@@ -1756,7 +1744,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>14</v>
@@ -1764,7 +1752,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>14</v>
@@ -1772,7 +1760,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>14</v>
@@ -1780,22 +1768,22 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>154</v>
+      <c r="A89" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -1820,7 +1808,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>14</v>
@@ -1828,7 +1816,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>14</v>
@@ -1836,7 +1824,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>14</v>
@@ -1852,7 +1840,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>14</v>
@@ -1860,15 +1848,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>15</v>
@@ -1876,7 +1864,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>15</v>
@@ -1900,7 +1888,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>15</v>
@@ -1908,7 +1896,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>15</v>
@@ -1916,7 +1904,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>15</v>
@@ -1924,7 +1912,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>15</v>
@@ -1940,7 +1928,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>15</v>
@@ -1948,7 +1936,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>15</v>
@@ -1956,7 +1944,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>15</v>
@@ -1988,7 +1976,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>15</v>
@@ -1996,7 +1984,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>15</v>
@@ -2004,7 +1992,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>15</v>
@@ -2012,7 +2000,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>15</v>
@@ -2020,23 +2008,23 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>58</v>
+      <c r="A119" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>113</v>
+      <c r="A120" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>16</v>
@@ -2044,7 +2032,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>16</v>
@@ -2052,7 +2040,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>16</v>
@@ -2060,7 +2048,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>16</v>
@@ -2084,7 +2072,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>16</v>
@@ -2092,7 +2080,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>16</v>
@@ -2108,15 +2096,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>17</v>
@@ -2124,7 +2112,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>17</v>
@@ -2132,39 +2120,39 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>199</v>
+      <c r="A133" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>200</v>
+      <c r="A134" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>132</v>
+      <c r="A135" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>35</v>
+      <c r="A136" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>18</v>
@@ -2172,7 +2160,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>18</v>
@@ -2180,15 +2168,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>19</v>
@@ -2196,7 +2184,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>19</v>
@@ -2204,7 +2192,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>19</v>
@@ -2212,23 +2200,23 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>20</v>
@@ -2236,7 +2224,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>20</v>
@@ -2244,39 +2232,39 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>89</v>
+      <c r="A147" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>90</v>
+      <c r="A148" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>251</v>
+      <c r="A149" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>112</v>
+      <c r="A150" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>20</v>
@@ -2284,7 +2272,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>20</v>
@@ -2292,7 +2280,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>20</v>
@@ -2300,7 +2288,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>20</v>
@@ -2308,7 +2296,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>20</v>
@@ -2324,22 +2312,22 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>215</v>
+      <c r="A157" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -2347,15 +2335,15 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>217</v>
+      <c r="A159" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -2363,8 +2351,8 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>221</v>
+      <c r="A161" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>20</v>
@@ -2379,56 +2367,56 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>223</v>
+      <c r="A163" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>225</v>
+      <c r="A164" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>227</v>
+      <c r="A165" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="s">
-        <v>172</v>
+      <c r="A166" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="s">
-        <v>191</v>
+      <c r="A167" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="s">
-        <v>228</v>
+      <c r="A168" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>22</v>
@@ -2436,15 +2424,15 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>211</v>
+      <c r="A171" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>22</v>
@@ -2467,32 +2455,32 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>231</v>
+      <c r="A174" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>23</v>
@@ -2500,7 +2488,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>23</v>
@@ -2508,7 +2496,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>23</v>
@@ -2516,7 +2504,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>23</v>
@@ -2524,7 +2512,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>23</v>
@@ -2532,7 +2520,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>23</v>
@@ -2540,7 +2528,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>23</v>
@@ -2548,15 +2536,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>137</v>
+      <c r="A185" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>23</v>
@@ -2564,7 +2552,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>23</v>
@@ -2572,15 +2560,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>169</v>
+      <c r="A188" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>23</v>
@@ -2588,7 +2576,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>23</v>
@@ -2596,7 +2584,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>23</v>
@@ -2604,7 +2592,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>23</v>
@@ -2612,7 +2600,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>23</v>
@@ -2620,7 +2608,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>23</v>
@@ -2628,7 +2616,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>23</v>
@@ -2636,7 +2624,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>23</v>
@@ -2644,7 +2632,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>23</v>
@@ -2652,7 +2640,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>23</v>
@@ -2660,7 +2648,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>23</v>
@@ -2668,7 +2656,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>23</v>
@@ -2684,63 +2672,63 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>241</v>
+      <c r="A202" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>242</v>
+      <c r="A203" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
-        <v>243</v>
+      <c r="A204" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>188</v>
+      <c r="A205" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>190</v>
+      <c r="A206" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>244</v>
+      <c r="A207" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>25</v>
@@ -2748,7 +2736,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>25</v>
@@ -2756,7 +2744,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>25</v>
@@ -2764,7 +2752,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>25</v>
@@ -2772,7 +2760,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>25</v>
@@ -2780,7 +2768,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>25</v>
@@ -2788,7 +2776,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>25</v>
@@ -2796,7 +2784,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>25</v>
@@ -2804,39 +2792,39 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
-        <v>49</v>
+      <c r="A220" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>26</v>
@@ -2844,7 +2832,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>26</v>
@@ -2852,15 +2840,15 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>119</v>
+      <c r="A223" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>26</v>
@@ -2868,7 +2856,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>26</v>
@@ -2876,7 +2864,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>26</v>
@@ -2884,7 +2872,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>26</v>
@@ -2892,31 +2880,31 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>27</v>
@@ -2924,7 +2912,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>27</v>
@@ -2932,7 +2920,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>27</v>
@@ -2940,15 +2928,15 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
-        <v>80</v>
+      <c r="A234" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>27</v>
@@ -2956,7 +2944,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>27</v>
@@ -2964,15 +2952,15 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>119</v>
+      <c r="A237" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>27</v>
@@ -2980,7 +2968,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>27</v>
@@ -2988,7 +2976,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>27</v>
@@ -2996,7 +2984,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>27</v>
@@ -3004,7 +2992,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>27</v>
@@ -3012,7 +3000,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>27</v>
@@ -3020,7 +3008,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>27</v>
@@ -3028,7 +3016,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>27</v>
@@ -3036,7 +3024,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>27</v>
@@ -3044,7 +3032,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>27</v>
@@ -3052,7 +3040,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>27</v>
@@ -3060,7 +3048,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>27</v>
@@ -3068,7 +3056,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>27</v>
@@ -3076,7 +3064,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>27</v>
@@ -3084,7 +3072,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>27</v>
@@ -3092,31 +3080,31 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>28</v>
@@ -3124,7 +3112,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>28</v>
@@ -3132,7 +3120,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>28</v>
@@ -3140,7 +3128,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>28</v>
@@ -3148,7 +3136,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>28</v>
@@ -3156,7 +3144,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>28</v>
@@ -3164,7 +3152,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>28</v>
@@ -3172,7 +3160,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>28</v>
@@ -3180,7 +3168,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>28</v>
@@ -3188,31 +3176,31 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>29</v>
@@ -3220,7 +3208,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>29</v>
@@ -3228,90 +3216,58 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="4" t="s">
-        <v>201</v>
+      <c r="A272" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="4" t="s">
-        <v>205</v>
+      <c r="A273" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="4" t="s">
-        <v>206</v>
+      <c r="A274" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3403,194 +3359,191 @@
     <hyperlink ref="A86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
     <hyperlink ref="A87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
     <hyperlink ref="A88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="A107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="A116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="A117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="A118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="A119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="A120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="A121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="A122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="A123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="A124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="A125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="A126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="A127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="A128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="A129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="A130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="A131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="A132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="A133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="A134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="A135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="A136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="A137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="A138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="A139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="A140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="A141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="A142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="A143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="A144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="A145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="A146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="A147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="A148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="A149" r:id="rId148" display="buienrader.nl" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="A150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="A151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="A152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="A153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="A154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="A155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="A156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="A157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="A158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="A159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="A160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="A161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="A162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="A163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="A164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="A165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="A169" r:id="rId165" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="A170" r:id="rId166" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="A171" r:id="rId167" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="A172" r:id="rId168" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="A173" r:id="rId169" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="A174" r:id="rId170" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="A175" r:id="rId171" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="A176" r:id="rId172" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="A177" r:id="rId173" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="A178" r:id="rId174" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="A179" r:id="rId175" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="A180" r:id="rId176" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="A181" r:id="rId177" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="A182" r:id="rId178" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="A183" r:id="rId179" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="A184" r:id="rId180" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="A185" r:id="rId181" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="A186" r:id="rId182" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="A187" r:id="rId183" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="A188" r:id="rId184" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="A189" r:id="rId185" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="A190" r:id="rId186" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="A191" r:id="rId187" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="A192" r:id="rId188" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="A193" r:id="rId189" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="A194" r:id="rId190" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="A195" r:id="rId191" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="A196" r:id="rId192" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="A197" r:id="rId193" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="A198" r:id="rId194" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="A199" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="A200" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="A201" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="A202" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="A203" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="A204" r:id="rId200" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="A205" r:id="rId201" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="A206" r:id="rId202" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="A207" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="A208" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="A209" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="A210" r:id="rId206" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="A211" r:id="rId207" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="A212" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="A213" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="A214" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="A215" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="A216" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="A217" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="A218" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="A219" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="A220" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="A221" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="A222" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="A223" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="A224" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="A225" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="A226" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="A227" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="A228" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="A229" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="A230" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="A231" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="A232" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="A233" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="A234" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="A235" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="A236" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="A237" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="A238" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="A239" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="A240" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="A241" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="A242" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="A243" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="A244" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="A245" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="A246" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="A247" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="A248" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="A249" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="A250" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="A251" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="A252" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="A253" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="A254" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="A255" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="A256" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="A257" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="A258" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="A259" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="A260" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="A261" r:id="rId257" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="A262" r:id="rId258" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="A263" r:id="rId259" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="A264" r:id="rId260" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="A265" r:id="rId261" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="A266" r:id="rId262" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="A267" r:id="rId263" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="A268" r:id="rId264" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="A269" r:id="rId265" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="A270" r:id="rId266" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="A271" r:id="rId267" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="A272" r:id="rId268" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="A273" r:id="rId269" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="A274" r:id="rId270" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="A275" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="A276" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="A277" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="A278" r:id="rId274" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="A279" r:id="rId275" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="A104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="A105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="A110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="A115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="A116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="A117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="A118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="A119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="A120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="A121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="A122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="A123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="A124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="A125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="A126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="A127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="A128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="A129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="A130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="A131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="A133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="A134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="A135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="A136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="A137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="A138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="A139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="A140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="A141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="A142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="A143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="A144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="A145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="A146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="A147" r:id="rId146" display="buienrader.nl" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="A148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="A149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="A150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="A151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="A152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="A153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="A154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="A155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="A156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="A157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="A158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="A159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="A160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="A161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="A162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="A163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="A166" r:id="rId163" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="A167" r:id="rId164" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="A168" r:id="rId165" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="A169" r:id="rId166" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="A170" r:id="rId167" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="A171" r:id="rId168" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="A172" r:id="rId169" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="A173" r:id="rId170" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="A174" r:id="rId171" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="A175" r:id="rId172" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="A176" r:id="rId173" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="A177" r:id="rId174" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="A178" r:id="rId175" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="A179" r:id="rId176" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="A180" r:id="rId177" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="A181" r:id="rId178" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="A182" r:id="rId179" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="A183" r:id="rId180" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="A184" r:id="rId181" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="A185" r:id="rId182" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="A186" r:id="rId183" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="A187" r:id="rId184" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="A188" r:id="rId185" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="A189" r:id="rId186" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="A190" r:id="rId187" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="A191" r:id="rId188" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="A192" r:id="rId189" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="A193" r:id="rId190" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="A194" r:id="rId191" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="A195" r:id="rId192" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="A196" r:id="rId193" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="A197" r:id="rId194" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="A198" r:id="rId195" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="A199" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="A200" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="A201" r:id="rId198" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="A202" r:id="rId199" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="A203" r:id="rId200" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="A204" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="A205" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="A206" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="A207" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="A208" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="A209" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="A210" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="A211" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="A212" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="A213" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="A214" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="A215" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="A216" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="A217" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="A218" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="A219" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="A220" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="A221" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="A222" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="A223" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="A224" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="A225" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="A226" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="A227" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="A228" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="A229" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="A230" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="A231" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="A232" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="A233" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="A234" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="A235" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="A236" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="A237" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="A238" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="A239" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="A240" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="A241" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="A242" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="A243" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="A244" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="A245" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="A246" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="A247" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="A248" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="A249" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="A250" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="A251" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="A252" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="A253" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="A254" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="A255" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="A256" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="A257" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="A258" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="A259" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="A260" r:id="rId257" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="A261" r:id="rId258" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="A262" r:id="rId259" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="A263" r:id="rId260" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="A264" r:id="rId261" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="A265" r:id="rId262" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="A266" r:id="rId263" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="A267" r:id="rId264" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="A268" r:id="rId265" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="A269" r:id="rId266" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="A270" r:id="rId267" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="A271" r:id="rId268" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="A272" r:id="rId269" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="A273" r:id="rId270" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="A274" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="A275" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
